--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7077986-7C14-4523-AA6E-BFB885425A48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63DD3E-B0D5-4156-A005-621F2CCBD45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
     <sheet name="TimePeriods" sheetId="20" r:id="rId2"/>
     <sheet name="Constants" sheetId="17" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -170,9 +175,6 @@
     <t>Twh</t>
   </si>
   <si>
-    <t>TIAM</t>
-  </si>
-  <si>
     <t>~Milestoneyears</t>
   </si>
   <si>
@@ -330,6 +332,39 @@
   </si>
   <si>
     <t>msy30_2050</t>
+  </si>
+  <si>
+    <t>KiNESYS</t>
+  </si>
+  <si>
+    <t>~Timeslices</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
   </si>
 </sst>
 </file>
@@ -8241,9 +8276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8281,9 +8316,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8316,26 +8351,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8368,26 +8386,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8561,31 +8562,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="13.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8595,12 +8596,52 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="13.15">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="G8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8613,19 +8654,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:E43"/>
+  <dimension ref="B3:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -8635,7 +8676,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -8643,9 +8684,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15">
+    <row r="8" spans="2:5" ht="14.25">
       <c r="B8" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8653,337 +8694,391 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="14.25">
+      <c r="B12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="E12" s="15" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
-        <v>msy30_2050</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15">
+        <v>msy33_2047</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25">
       <c r="B13" s="13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="14.25">
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:H28" si="0">$B$4</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15">
+        <f t="shared" ref="E14" si="0">$B$4</f>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="14.25">
       <c r="B15" s="13">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <f>E14+1</f>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="14.25">
       <c r="B16" s="13">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E43" si="1">E15+1</f>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15">
+        <f t="shared" ref="E16:E49" si="1">E15+1</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="14.25">
       <c r="B17" s="13">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="14.25">
       <c r="B18" s="13">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="14.25">
       <c r="B19" s="13">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.25">
       <c r="B20" s="13">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.25">
       <c r="B21" s="13">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25">
       <c r="B22" s="13">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25">
       <c r="B23" s="13">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="14.25">
       <c r="B24" s="13">
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.25">
       <c r="B25" s="13"/>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="15">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="14.25">
       <c r="B26" s="13"/>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="14.25">
       <c r="B27" s="13"/>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="15">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="14.25">
       <c r="B28" s="13"/>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="15">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="14.25">
       <c r="B29" s="13"/>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="15">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="14.25">
       <c r="B30" s="13"/>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="14.25">
       <c r="B31" s="13"/>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="15">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="14.25">
       <c r="B32" s="13"/>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25">
       <c r="B33" s="13"/>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="D34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>2041</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="D35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>2042</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="D36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>2043</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>2044</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="D38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>2045</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>2046</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>2047</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="D41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>2048</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="D42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>2049</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="D43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>2050</v>
       </c>
@@ -9003,19 +9098,19 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="4"/>
+    <col min="6" max="6" width="9.1328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="12.75">
@@ -9035,7 +9130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="12.75">
+    <row r="3" spans="2:13" ht="13.15">
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -9084,7 +9179,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="5"/>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4"/>
     </row>
@@ -9100,7 +9195,7 @@
       <c r="J5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="12.75">
@@ -9113,28 +9208,28 @@
       <c r="J6"/>
       <c r="K6" s="5"/>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="12.75">
       <c r="J7"/>
       <c r="K7" s="5"/>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="12.75">
       <c r="J8"/>
       <c r="K8" s="5"/>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="12.75">
       <c r="J9"/>
       <c r="K9" s="5"/>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="12.75">
@@ -9144,7 +9239,7 @@
       <c r="J10"/>
       <c r="K10" s="5"/>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="12.75">
@@ -9160,7 +9255,7 @@
       <c r="J11"/>
       <c r="K11" s="5"/>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="12.75">
@@ -9175,7 +9270,7 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="12.75">
@@ -9190,7 +9285,7 @@
       </c>
       <c r="K13" s="5"/>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="12.75">
@@ -9206,7 +9301,7 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="12.75">
@@ -9222,7 +9317,7 @@
       </c>
       <c r="K15" s="5"/>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="12.75">
@@ -9238,7 +9333,7 @@
       </c>
       <c r="K16" s="5"/>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="12.75">
@@ -9253,7 +9348,7 @@
       </c>
       <c r="K17" s="5"/>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="12.75">
@@ -9267,7 +9362,7 @@
         <v>41.87</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="12.75">
@@ -9281,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="12.75">
@@ -9295,7 +9390,7 @@
         <v>1000000</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="12.75">
@@ -9309,7 +9404,7 @@
         <v>1000</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="12.75">
@@ -9323,7 +9418,7 @@
         <v>0.15</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="12.75">
@@ -9337,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="12.75">
@@ -9351,7 +9446,7 @@
         <v>1000</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="12.75">
@@ -9365,7 +9460,7 @@
         <v>37.68</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="12.75">
@@ -9379,7 +9474,7 @@
         <v>2299</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="12.75">
@@ -9393,7 +9488,7 @@
         <v>2.78</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="12.75">
@@ -9407,7 +9502,7 @@
         <v>3.6</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="4:12" ht="12.75">
@@ -9421,12 +9516,12 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="4:12" ht="12.75">
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>24</v>
@@ -9435,97 +9530,97 @@
         <v>31.536000000000001</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="4:12" ht="12.75">
       <c r="L31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="12.75">
       <c r="L32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="12:12" ht="12.75">
       <c r="L33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="12:12" ht="12.75">
       <c r="L34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="12:12" ht="12.75">
       <c r="L35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="12:12" ht="12.75">
       <c r="L36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="12:12" ht="12.75">
       <c r="L37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="12:12" ht="12.75">
       <c r="L38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="12:12" ht="12.75">
       <c r="L39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="12:12" ht="12.75">
       <c r="L40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="12:12" ht="12.75">
       <c r="L41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="12:12" ht="12.75">
       <c r="L42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="12:12" ht="12.75">
       <c r="L43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="12:12" ht="12.75">
       <c r="L44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="12:12" ht="12.75">
       <c r="L45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="12:12" ht="12.75">
       <c r="L46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="12:12" ht="12.75">
       <c r="L47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="12:12" ht="12.75">
       <c r="L48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63DD3E-B0D5-4156-A005-621F2CCBD45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9824D89-D15D-4518-9E1F-7595169FE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>D4</t>
+  </si>
+  <si>
+    <t>~TFM_INS-txt</t>
+  </si>
+  <si>
+    <t>com_tsl</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -8564,7 +8576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -9094,8 +9106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -9543,82 +9555,129 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="12:12" ht="12.75">
+    <row r="33" spans="2:12" ht="12.75">
       <c r="L33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="12:12" ht="12.75">
+    <row r="34" spans="2:12" ht="12.75">
       <c r="L34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="12:12" ht="12.75">
+    <row r="35" spans="2:12" ht="12.75">
+      <c r="B35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="L35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="12:12" ht="12.75">
+    <row r="36" spans="2:12" ht="13.15">
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="L36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="12:12" ht="12.75">
+    <row r="37" spans="2:12" ht="12.75">
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="L37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="12:12" ht="12.75">
+    <row r="38" spans="2:12" ht="12.75">
       <c r="L38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="12:12" ht="12.75">
+    <row r="39" spans="2:12" ht="12.75">
       <c r="L39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="12:12" ht="12.75">
+    <row r="40" spans="2:12" ht="12.75">
       <c r="L40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="12:12" ht="12.75">
+    <row r="41" spans="2:12" ht="12.75">
       <c r="L41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="12:12" ht="12.75">
+    <row r="42" spans="2:12" ht="12.75">
       <c r="L42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="12:12" ht="12.75">
+    <row r="43" spans="2:12" ht="12.75">
       <c r="L43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="12:12" ht="12.75">
+    <row r="44" spans="2:12" ht="12.75">
       <c r="L44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="12:12" ht="12.75">
+    <row r="45" spans="2:12" ht="12.75">
       <c r="L45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="12:12" ht="12.75">
+    <row r="46" spans="2:12" ht="12.75">
       <c r="L46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="12:12" ht="12.75">
+    <row r="47" spans="2:12" ht="12.75">
       <c r="L47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="12:12" ht="12.75">
+    <row r="48" spans="2:12" ht="12.75">
       <c r="L48" t="s">
         <v>68</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9824D89-D15D-4518-9E1F-7595169FE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3578F-ABE9-42FF-99E1-DC2184FC77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -376,7 +376,10 @@
     <t>DAYNITE</t>
   </si>
   <si>
-    <t>*</t>
+    <t>cset_Set</t>
+  </si>
+  <si>
+    <t>NRG</t>
   </si>
 </sst>
 </file>
@@ -9107,7 +9110,7 @@
   <dimension ref="B2:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -9604,7 +9607,7 @@
         <v>12</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>10</v>
@@ -9620,8 +9623,8 @@
       <c r="G37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>113</v>
+      <c r="I37" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3578F-ABE9-42FF-99E1-DC2184FC77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6D09C-4920-4AEA-B909-2FC67BF9D860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
@@ -361,12 +361,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>~TFM_INS-txt</t>
   </si>
   <si>
@@ -380,6 +374,12 @@
   </si>
   <si>
     <t>NRG</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -8579,8 +8579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
@@ -8650,13 +8650,13 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="G7" t="s">
-        <v>108</v>
+      <c r="E7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="G8" t="s">
-        <v>109</v>
+      <c r="E8" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -9109,7 +9109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -9570,7 +9570,7 @@
     </row>
     <row r="35" spans="2:12" ht="12.75">
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -9607,7 +9607,7 @@
         <v>12</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>10</v>
@@ -9618,13 +9618,13 @@
     </row>
     <row r="37" spans="2:12" ht="12.75">
       <c r="D37" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="L37" t="s">
         <v>57</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D6D09C-4920-4AEA-B909-2FC67BF9D860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66EC0AF-05F7-4F69-B130-6B80F2D6E1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>S4</t>
+  </si>
+  <si>
+    <t>prc_tsl</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>pwrtrn*</t>
   </si>
 </sst>
 </file>
@@ -8579,7 +8588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -9109,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -9598,7 +9607,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>5</v>
@@ -9631,6 +9640,15 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="12.75">
+      <c r="D38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="L38" t="s">
         <v>58</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66EC0AF-05F7-4F69-B130-6B80F2D6E1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE35FF-F46C-4784-9152-FD6493AA9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
     <sheet name="TimePeriods" sheetId="20" r:id="rId2"/>
-    <sheet name="Constants" sheetId="17" r:id="rId3"/>
+    <sheet name="reporting options" sheetId="21" r:id="rId3"/>
+    <sheet name="Constants" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -389,6 +390,39 @@
   </si>
   <si>
     <t>pwrtrn*</t>
+  </si>
+  <si>
+    <t>RPT_OPT</t>
+  </si>
+  <si>
+    <t>ACT~2</t>
+  </si>
+  <si>
+    <t>NCAP~1</t>
+  </si>
+  <si>
+    <t>FLO~3</t>
+  </si>
+  <si>
+    <t>FLO~5</t>
+  </si>
+  <si>
+    <t>FLO~1</t>
+  </si>
+  <si>
+    <t>COMPRD~1</t>
+  </si>
+  <si>
+    <t>OBJ~1</t>
+  </si>
+  <si>
+    <t>ELC~1</t>
+  </si>
+  <si>
+    <t>ELC~3</t>
+  </si>
+  <si>
+    <t>COMPRD~4</t>
   </si>
 </sst>
 </file>
@@ -9115,10 +9149,162 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB16D98-16B6-4B72-8202-F900C19E238D}">
+  <dimension ref="C4:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE35FF-F46C-4784-9152-FD6493AA9C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C8C72-738A-4B78-92D7-7371B17BDA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -8712,10 +8712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:E49"/>
+  <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75"/>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -8763,8 +8763,8 @@
         <v>47</v>
       </c>
       <c r="E12" s="15" t="str">
-        <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
-        <v>msy33_2047</v>
+        <f>"msy"&amp;COUNT(E14:E43)&amp;"_"&amp;MAX(E14:E43)</f>
+        <v>msy30_2050</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="14.25">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="E14">
         <f t="shared" ref="E14" si="0">$B$4</f>
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="14.25">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E15">
         <f>E14+1</f>
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="14.25">
@@ -8807,8 +8807,8 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E49" si="1">E15+1</f>
-        <v>2017</v>
+        <f t="shared" ref="E16:E43" si="1">E15+1</f>
+        <v>2023</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="14.25">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>2018</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="14.25">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>2019</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.25">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>2020</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.25">
@@ -8856,7 +8856,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>2021</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.25">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.25">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>2023</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="14.25">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>2024</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.25">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>2025</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="14.25">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>2026</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="14.25">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>2027</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.25">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>2028</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="14.25">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>2029</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="14.25">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>2030</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.25">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>2031</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="14.25">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2032</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.25">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2033</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>2034</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>2035</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>2036</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>2037</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>2038</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>2039</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>2041</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>2042</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>2043</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -9083,60 +9083,6 @@
         <v>49</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="D48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49">
         <f t="shared" si="1"/>
         <v>2050</v>
       </c>
@@ -9152,7 +9098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB16D98-16B6-4B72-8202-F900C19E238D}">
   <dimension ref="C4:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\OSeMOSYS_EUWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C8C72-738A-4B78-92D7-7371B17BDA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DA4C6-13E4-44EC-875A-B3A5182FE440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTT" sheetId="16" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>COMPRD~4</t>
+  </si>
+  <si>
+    <t>pset_set</t>
+  </si>
+  <si>
+    <t>Trade</t>
   </si>
 </sst>
 </file>
@@ -8714,7 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -9250,8 +9256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -9751,7 +9757,7 @@
         <v>111</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
         <v>56</v>
@@ -9786,6 +9792,15 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="12.75">
+      <c r="D39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="L39" t="s">
         <v>59</v>
       </c>
